--- a/GI_Calcs.xlsx
+++ b/GI_Calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhoneyma/Library/Mobile Documents/com~apple~CloudDocs/Documents/UBC/Yr2/CHEM211/LAB211/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7A9147-BAD7-2B46-978A-89C945E448F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60C1C5-9381-7340-931A-D8F969FA687D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="2360" windowWidth="25800" windowHeight="15940" xr2:uid="{39160339-4E40-2444-9919-E9F3CE4EDF7A}"/>
+    <workbookView xWindow="4580" yWindow="3260" windowWidth="25800" windowHeight="15940" xr2:uid="{39160339-4E40-2444-9919-E9F3CE4EDF7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Thermo" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="97">
   <si>
     <t>Kinetics</t>
   </si>
@@ -377,6 +377,9 @@
   <si>
     <t>Conc (M)</t>
   </si>
+  <si>
+    <t>± CI (95%)</t>
+  </si>
 </sst>
 </file>
 
@@ -655,23 +658,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Thermo!$C$7:$C$11</c:f>
+              <c:f>Thermo!$C$6:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.0960000000000006E-6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.2192000000000001E-5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.8288000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.4384000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.048E-5</c:v>
                 </c:pt>
               </c:numCache>
@@ -679,23 +685,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Thermo!$D$7:$D$11</c:f>
+              <c:f>Thermo!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.129</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.26100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.53100000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.65700000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -7257,16 +7266,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1026067</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>468503</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>40888</xdr:rowOff>
+      <xdr:rowOff>40886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>397262</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495609</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>111513</xdr:rowOff>
+      <xdr:rowOff>111511</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7299,15 +7308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>720372</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>156633</xdr:rowOff>
+      <xdr:colOff>353483</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>680861</xdr:colOff>
+      <xdr:colOff>804333</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>35278</xdr:rowOff>
+      <xdr:rowOff>183443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7832,10 +7841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F38B82B-6FC4-924F-96E4-3A4FEDA4DA40}">
-  <dimension ref="B2:K37"/>
+  <dimension ref="B2:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7847,9 +7856,11 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
@@ -7858,7 +7869,7 @@
       </c>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J3" s="9" t="s">
         <v>74</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4">
         <v>3.5200000000000002E-2</v>
       </c>
@@ -7874,7 +7885,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
@@ -7893,7 +7904,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -7910,7 +7921,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7925,7 +7936,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
@@ -7940,7 +7951,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
@@ -7955,7 +7966,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>4</v>
       </c>
@@ -7970,7 +7981,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5</v>
       </c>
@@ -7985,7 +7996,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>78</v>
       </c>
@@ -8011,8 +8022,11 @@
       <c r="K14" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -8021,30 +8035,34 @@
       </c>
       <c r="D15">
         <f>((C15-$C$36)/$C$37)*10^6</f>
-        <v>5.9856651583710452</v>
+        <v>5.9467818574513993</v>
       </c>
       <c r="E15">
-        <f>(3.18*($C$26/ABS($C$37)) * SQRT(1/COUNT(C15)+1/COUNT($B$7:$B$11)+($D$37^2 * (C15-AVERAGE($D$7:$D$11)^2))/($C$37^2 * $C$26^2)))*10^6</f>
-        <v>0.59326931828249796</v>
+        <f>(3.18*($C$26/ABS($C$37)) * SQRT(1/COUNT(C15)+1/COUNT($B$6:$B$11)+($D$37^2 * (C15-AVERAGE($D$6:$D$11)^2))/($C$37^2 * $C$26^2)))*10^6</f>
+        <v>0.58172373347093176</v>
       </c>
       <c r="F15" s="11">
         <f>D15/($G$6*10^3) *100</f>
-        <v>3.5842306337551171</v>
+        <v>3.5609472200307781</v>
       </c>
       <c r="G15" s="11">
         <f>E15/($G$6*10^3)*100</f>
-        <v>0.35525108879191492</v>
+        <v>0.34833756495265378</v>
       </c>
       <c r="J15" s="11">
         <f>$C$37</f>
-        <v>21751.968503937016</v>
+        <v>21700.412448443938</v>
       </c>
       <c r="K15" s="11">
         <f>$D$37</f>
-        <v>206.6321481593516</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+        <v>138.5086880346295</v>
+      </c>
+      <c r="L15" s="11">
+        <f>K15*4</f>
+        <v>554.034752138518</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>80</v>
       </c>
@@ -8053,19 +8071,19 @@
       </c>
       <c r="D16">
         <f t="shared" ref="D16:D17" si="0">((C16-$C$36)/$C$37)*10^6</f>
-        <v>17.340959276018101</v>
+        <v>17.329053995680344</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E17" si="1">(3.18*($C$26/ABS($C$37)) * SQRT(1/COUNT(C16)+1/COUNT($B$7:$B$11)+($D$37^2 * (C16-AVERAGE($D$7:$D$11)^2))/($C$37^2 * $C$26^2)))*10^6</f>
-        <v>0.91013603225395356</v>
+        <f>(3.18*($C$26/ABS($C$37)) * SQRT(1/COUNT(C16)+1/COUNT($B$6:$B$11)+($D$37^2 * (C16-AVERAGE($D$6:$D$11)^2))/($C$37^2 * $C$26^2)))*10^6</f>
+        <v>0.74464206589522675</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" ref="F16:F17" si="2">D16/($G$6*10^3) *100</f>
-        <v>10.383807949711438</v>
+        <f t="shared" ref="F16:F17" si="1">D16/($G$6*10^3) *100</f>
+        <v>10.376679039329547</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" ref="G16:G17" si="3">E16/($G$6*10^3)*100</f>
-        <v>0.54499163608021173</v>
+        <f t="shared" ref="G16:G17" si="2">E16/($G$6*10^3)*100</f>
+        <v>0.44589345263187236</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -8077,19 +8095,19 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>5.4799638009049829</v>
+        <v>5.439879049676021</v>
       </c>
       <c r="E17">
+        <f>(3.18*($C$26/ABS($C$37)) * SQRT(1/COUNT(C17)+1/COUNT($B$6:$B$11)+($D$37^2 * (C17-AVERAGE($D$6:$D$11)^2))/($C$37^2 * $C$26^2)))*10^6</f>
+        <v>0.57339261573034306</v>
+      </c>
+      <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>0.57511148472721974</v>
-      </c>
-      <c r="F17" s="11">
+        <v>3.25741260459642</v>
+      </c>
+      <c r="G17" s="11">
         <f t="shared" si="2"/>
-        <v>3.2814154496437022</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="3"/>
-        <v>0.34437813456719746</v>
+        <v>0.3433488716948162</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -8109,7 +8127,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="5">
-        <v>0.99986466761337367</v>
+        <v>0.99991853051422952</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -8117,7 +8135,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="5">
-        <v>0.99972935354160219</v>
+        <v>0.99983706766573621</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -8125,7 +8143,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="5">
-        <v>0.99963913805546956</v>
+        <v>0.99979633458217032</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -8133,7 +8151,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="5">
-        <v>3.9832984656772256E-3</v>
+        <v>3.5321651258385951E-3</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8141,7 +8159,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8175,16 +8193,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>0.1758276</v>
+        <v>0.30624142857142861</v>
       </c>
       <c r="E31" s="5">
-        <v>0.1758276</v>
+        <v>0.30624142857142861</v>
       </c>
       <c r="F31" s="5">
-        <v>11081.571428571517</v>
+        <v>24546.068702290271</v>
       </c>
       <c r="G31" s="5">
-        <v>1.8898513807512178E-6</v>
+        <v>9.9556452997731236E-9</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -8192,13 +8210,13 @@
         <v>55</v>
       </c>
       <c r="C32" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5">
-        <v>4.7599999999999619E-5</v>
+        <v>4.9904761904761512E-5</v>
       </c>
       <c r="E32" s="5">
-        <v>1.586666666666654E-5</v>
+        <v>1.2476190476190378E-5</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -8208,10 +8226,10 @@
         <v>56</v>
       </c>
       <c r="C33" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="6">
-        <v>0.17587520000000001</v>
+        <v>0.30629133333333336</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -8250,28 +8268,28 @@
         <v>57</v>
       </c>
       <c r="C36" s="5">
-        <v>-2.2000000000001463E-3</v>
+        <v>-1.0476190476189084E-3</v>
       </c>
       <c r="D36" s="5">
-        <v>4.177718675704864E-3</v>
+        <v>2.556393434565618E-3</v>
       </c>
       <c r="E36" s="5">
-        <v>-0.5266031944166184</v>
+        <v>-0.40980352767840672</v>
       </c>
       <c r="F36" s="5">
-        <v>0.63492240520426013</v>
+        <v>0.702947140653291</v>
       </c>
       <c r="G36" s="5">
-        <v>-1.549536536401184E-2</v>
+        <v>-8.1453050859783948E-3</v>
       </c>
       <c r="H36" s="5">
-        <v>1.1095365364011548E-2</v>
+        <v>6.050066990740577E-3</v>
       </c>
       <c r="I36" s="5">
-        <v>-1.549536536401184E-2</v>
+        <v>-8.1453050859783948E-3</v>
       </c>
       <c r="J36" s="5">
-        <v>1.1095365364011548E-2</v>
+        <v>6.050066990740577E-3</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8279,42 +8297,43 @@
         <v>70</v>
       </c>
       <c r="C37" s="6">
-        <v>21751.968503937016</v>
+        <v>21700.412448443938</v>
       </c>
       <c r="D37" s="6">
-        <v>206.6321481593516</v>
+        <v>138.5086880346295</v>
       </c>
       <c r="E37" s="6">
-        <v>105.26904306856562</v>
+        <v>156.67185038254402</v>
       </c>
       <c r="F37" s="6">
-        <v>1.8898513807512178E-6</v>
+        <v>9.9556452997731236E-9</v>
       </c>
       <c r="G37" s="6">
-        <v>21094.372787474451</v>
+        <v>21315.850679522824</v>
       </c>
       <c r="H37" s="6">
-        <v>22409.564220399581</v>
+        <v>22084.974217365052</v>
       </c>
       <c r="I37" s="6">
-        <v>21094.372787474451</v>
+        <v>21315.850679522824</v>
       </c>
       <c r="J37" s="6">
-        <v>22409.564220399581</v>
+        <v>22084.974217365052</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBFEA85-1743-9D48-B44F-0132528D018F}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8327,17 +8346,17 @@
     <col min="10" max="10" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1.2540000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>42</v>
       </c>
@@ -8362,8 +8381,9 @@
       <c r="J5" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -8396,7 +8416,7 @@
         <v>13494027.436621301</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -8421,7 +8441,7 @@
         <v>1552615.6722964619</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -8446,7 +8466,7 @@
         <v>1694421.0609851941</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -8471,7 +8491,7 @@
         <v>2044223.6460078696</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G10" s="9" t="s">
         <v>93</v>
       </c>
@@ -8479,7 +8499,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G11" s="11">
         <f>AVERAGE(G6:G9)</f>
         <v>1700225.4913173784</v>
@@ -8489,19 +8509,19 @@
         <v>385641.1683597634</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
@@ -8702,6 +8722,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
